--- a/NRI_STLF_Data/WeatherData/T_mashhad/T_mashhad95.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_mashhad/T_mashhad95.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NRST\WeatherData\T_mashhad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.6.13\WeatherData\T_mashhad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -257,12 +257,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -596,13 +596,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157:AA160"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="H168" sqref="H168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>95</v>
       </c>
@@ -676,7 +676,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>95</v>
       </c>
@@ -753,7 +753,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>95</v>
       </c>
@@ -833,7 +833,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>95</v>
       </c>
@@ -913,7 +913,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>95</v>
       </c>
@@ -990,7 +990,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>95</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>95</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>95</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>95</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>95</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>95</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>95</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>95</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>95</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>95</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>95</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>95</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>95</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>95</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>95</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>95</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>95</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>95</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>95</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>95</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>95</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>95</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>95</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>95</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>95</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>95</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>95</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>95</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>95</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>95</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>95</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>95</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>95</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>95</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>95</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>95</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>95</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>95</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>95</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>95</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>95</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>95</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>95</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>95</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>95</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>95</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>95</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>95</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>95</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>95</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>95</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>95</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>95</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>95</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>95</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>95</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>95</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>95</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>95</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>95</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>95</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>95</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>95</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>95</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>95</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>95</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>95</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>95</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>95</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>95</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>95</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>95</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>95</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>95</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>95</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>95</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>95</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>95</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>95</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>95</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>95</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>95</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>95</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>95</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>95</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>95</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>95</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>95</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>95</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>95</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>95</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>95</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>95</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>95</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>95</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>95</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>95</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>95</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>95</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>95</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>95</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>95</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>95</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>95</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>95</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>95</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>95</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>95</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>95</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>95</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>95</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>95</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>95</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>95</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>95</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>95</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>95</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>95</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>95</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>95</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>95</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>95</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>95</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>95</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>95</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>95</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>95</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>95</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>95</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>95</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>95</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>95</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>95</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>95</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>95</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>95</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>95</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>95</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>95</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>95</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>95</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>95</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>95</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>95</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>95</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>95</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>95</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>95</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>95</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>95</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>95</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>95</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>95</v>
       </c>
@@ -12944,8 +12944,65 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <v>32</v>
+      </c>
+      <c r="G161">
+        <v>24</v>
+      </c>
+      <c r="H161">
+        <v>16</v>
+      </c>
+      <c r="I161">
+        <v>-1</v>
+      </c>
+      <c r="J161">
+        <v>-8</v>
+      </c>
+      <c r="K161">
+        <v>-15</v>
+      </c>
+      <c r="L161">
+        <v>31</v>
+      </c>
+      <c r="M161">
+        <v>12</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161">
+        <v>1020</v>
+      </c>
+      <c r="P161">
+        <v>1017</v>
+      </c>
+      <c r="Q161">
+        <v>1011</v>
+      </c>
+      <c r="R161">
+        <v>14</v>
+      </c>
+      <c r="S161">
+        <v>14</v>
+      </c>
+      <c r="T161">
+        <v>11</v>
+      </c>
+      <c r="U161">
+        <v>23</v>
+      </c>
+      <c r="V161">
+        <v>11</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>95</v>
       </c>
@@ -12961,8 +13018,65 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <v>33</v>
+      </c>
+      <c r="G162">
+        <v>24</v>
+      </c>
+      <c r="H162">
+        <v>16</v>
+      </c>
+      <c r="I162">
+        <v>-2</v>
+      </c>
+      <c r="J162">
+        <v>-7</v>
+      </c>
+      <c r="K162">
+        <v>-12</v>
+      </c>
+      <c r="L162">
+        <v>26</v>
+      </c>
+      <c r="M162">
+        <v>12</v>
+      </c>
+      <c r="N162">
+        <v>4</v>
+      </c>
+      <c r="O162">
+        <v>1020</v>
+      </c>
+      <c r="P162">
+        <v>1017</v>
+      </c>
+      <c r="Q162">
+        <v>1011</v>
+      </c>
+      <c r="R162">
+        <v>14</v>
+      </c>
+      <c r="S162">
+        <v>14</v>
+      </c>
+      <c r="T162">
+        <v>11</v>
+      </c>
+      <c r="U162">
+        <v>26</v>
+      </c>
+      <c r="V162">
+        <v>11</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="AA162">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>95</v>
       </c>
@@ -12978,8 +13092,68 @@
       <c r="E163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <v>34</v>
+      </c>
+      <c r="G163">
+        <v>25</v>
+      </c>
+      <c r="H163">
+        <v>16</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>-4</v>
+      </c>
+      <c r="K163">
+        <v>-8</v>
+      </c>
+      <c r="L163">
+        <v>32</v>
+      </c>
+      <c r="M163">
+        <v>14</v>
+      </c>
+      <c r="N163">
+        <v>4</v>
+      </c>
+      <c r="O163">
+        <v>1019</v>
+      </c>
+      <c r="P163">
+        <v>1016</v>
+      </c>
+      <c r="Q163">
+        <v>1008</v>
+      </c>
+      <c r="R163">
+        <v>14</v>
+      </c>
+      <c r="S163">
+        <v>12</v>
+      </c>
+      <c r="T163">
+        <v>10</v>
+      </c>
+      <c r="U163">
+        <v>26</v>
+      </c>
+      <c r="V163">
+        <v>11</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>1</v>
+      </c>
+      <c r="AA163">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>95</v>
       </c>
@@ -12995,8 +13169,68 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <v>34</v>
+      </c>
+      <c r="G164">
+        <v>27</v>
+      </c>
+      <c r="H164">
+        <v>19</v>
+      </c>
+      <c r="I164">
+        <v>4</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>-3</v>
+      </c>
+      <c r="L164">
+        <v>32</v>
+      </c>
+      <c r="M164">
+        <v>17</v>
+      </c>
+      <c r="N164">
+        <v>4</v>
+      </c>
+      <c r="O164">
+        <v>1017</v>
+      </c>
+      <c r="P164">
+        <v>1015</v>
+      </c>
+      <c r="Q164">
+        <v>1009</v>
+      </c>
+      <c r="R164">
+        <v>19</v>
+      </c>
+      <c r="S164">
+        <v>11</v>
+      </c>
+      <c r="T164">
+        <v>10</v>
+      </c>
+      <c r="U164">
+        <v>26</v>
+      </c>
+      <c r="V164">
+        <v>11</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>3</v>
+      </c>
+      <c r="AA164">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>95</v>
       </c>
@@ -13012,8 +13246,68 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <v>33</v>
+      </c>
+      <c r="G165">
+        <v>26</v>
+      </c>
+      <c r="H165">
+        <v>19</v>
+      </c>
+      <c r="I165">
+        <v>5</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>-5</v>
+      </c>
+      <c r="L165">
+        <v>40</v>
+      </c>
+      <c r="M165">
+        <v>18</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165">
+        <v>1016</v>
+      </c>
+      <c r="P165">
+        <v>1013</v>
+      </c>
+      <c r="Q165">
+        <v>1006</v>
+      </c>
+      <c r="R165">
+        <v>14</v>
+      </c>
+      <c r="S165">
+        <v>11</v>
+      </c>
+      <c r="T165">
+        <v>10</v>
+      </c>
+      <c r="U165">
+        <v>29</v>
+      </c>
+      <c r="V165">
+        <v>14</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>1</v>
+      </c>
+      <c r="AA165">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>95</v>
       </c>
@@ -13029,8 +13323,68 @@
       <c r="E166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <v>33</v>
+      </c>
+      <c r="G166">
+        <v>26</v>
+      </c>
+      <c r="H166">
+        <v>18</v>
+      </c>
+      <c r="I166">
+        <v>4</v>
+      </c>
+      <c r="J166">
+        <v>-1</v>
+      </c>
+      <c r="K166">
+        <v>-4</v>
+      </c>
+      <c r="L166">
+        <v>37</v>
+      </c>
+      <c r="M166">
+        <v>18</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166">
+        <v>1014</v>
+      </c>
+      <c r="P166">
+        <v>1011</v>
+      </c>
+      <c r="Q166">
+        <v>1003</v>
+      </c>
+      <c r="R166">
+        <v>14</v>
+      </c>
+      <c r="S166">
+        <v>11</v>
+      </c>
+      <c r="T166">
+        <v>10</v>
+      </c>
+      <c r="U166">
+        <v>19</v>
+      </c>
+      <c r="V166">
+        <v>10</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>1</v>
+      </c>
+      <c r="AA166">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>95</v>
       </c>
@@ -13046,8 +13400,68 @@
       <c r="E167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <v>34</v>
+      </c>
+      <c r="G167">
+        <v>26</v>
+      </c>
+      <c r="H167">
+        <v>18</v>
+      </c>
+      <c r="I167">
+        <v>12</v>
+      </c>
+      <c r="J167">
+        <v>2</v>
+      </c>
+      <c r="K167">
+        <v>-5</v>
+      </c>
+      <c r="L167">
+        <v>47</v>
+      </c>
+      <c r="M167">
+        <v>22</v>
+      </c>
+      <c r="N167">
+        <v>4</v>
+      </c>
+      <c r="O167">
+        <v>1015</v>
+      </c>
+      <c r="P167">
+        <v>1012</v>
+      </c>
+      <c r="Q167">
+        <v>1004</v>
+      </c>
+      <c r="R167">
+        <v>19</v>
+      </c>
+      <c r="S167">
+        <v>11</v>
+      </c>
+      <c r="T167">
+        <v>10</v>
+      </c>
+      <c r="U167">
+        <v>29</v>
+      </c>
+      <c r="V167">
+        <v>11</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>2</v>
+      </c>
+      <c r="AA167">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>95</v>
       </c>
@@ -13063,8 +13477,17 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>31</v>
+      </c>
+      <c r="G168">
+        <v>24</v>
+      </c>
+      <c r="H168">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>95</v>
       </c>
@@ -13080,8 +13503,17 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <v>32</v>
+      </c>
+      <c r="G169">
+        <v>26</v>
+      </c>
+      <c r="H169">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>95</v>
       </c>
@@ -13097,8 +13529,17 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <v>36</v>
+      </c>
+      <c r="G170">
+        <v>28</v>
+      </c>
+      <c r="H170">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>95</v>
       </c>
@@ -13114,8 +13555,17 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <v>33</v>
+      </c>
+      <c r="G171">
+        <v>26</v>
+      </c>
+      <c r="H171">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>95</v>
       </c>
@@ -13131,8 +13581,17 @@
       <c r="E172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <v>33</v>
+      </c>
+      <c r="G172">
+        <v>27</v>
+      </c>
+      <c r="H172">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>95</v>
       </c>
@@ -13149,7 +13608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>95</v>
       </c>
@@ -13166,7 +13625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>95</v>
       </c>
@@ -13183,7 +13642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>95</v>
       </c>
@@ -13200,7 +13659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>95</v>
       </c>
@@ -13217,7 +13676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>95</v>
       </c>
@@ -13234,7 +13693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>95</v>
       </c>
@@ -13251,7 +13710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>95</v>
       </c>
@@ -13268,7 +13727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>95</v>
       </c>
@@ -13285,7 +13744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>95</v>
       </c>
@@ -13302,7 +13761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>95</v>
       </c>
@@ -13319,7 +13778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>95</v>
       </c>
@@ -13336,7 +13795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>95</v>
       </c>
@@ -13353,7 +13812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>95</v>
       </c>
@@ -13370,7 +13829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>95</v>
       </c>
@@ -13387,7 +13846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>95</v>
       </c>
@@ -13404,7 +13863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>95</v>
       </c>
@@ -13421,7 +13880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>95</v>
       </c>
@@ -13438,7 +13897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>95</v>
       </c>
@@ -13455,7 +13914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>95</v>
       </c>
@@ -13472,7 +13931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>95</v>
       </c>
@@ -13489,7 +13948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>95</v>
       </c>
@@ -13506,7 +13965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>95</v>
       </c>
@@ -13523,7 +13982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>95</v>
       </c>
@@ -13540,7 +13999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>95</v>
       </c>
@@ -13557,7 +14016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>95</v>
       </c>
@@ -13574,7 +14033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>95</v>
       </c>
@@ -13591,7 +14050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>95</v>
       </c>
@@ -13608,7 +14067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>95</v>
       </c>
@@ -13625,7 +14084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>95</v>
       </c>
@@ -13642,7 +14101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>95</v>
       </c>
@@ -13659,7 +14118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>95</v>
       </c>
@@ -13676,7 +14135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>95</v>
       </c>
@@ -13693,7 +14152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>95</v>
       </c>
@@ -13710,7 +14169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>95</v>
       </c>
@@ -13727,7 +14186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>95</v>
       </c>
@@ -13744,7 +14203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>95</v>
       </c>
@@ -13761,7 +14220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>95</v>
       </c>
@@ -13778,7 +14237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>95</v>
       </c>
@@ -13795,7 +14254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>95</v>
       </c>
@@ -13812,7 +14271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>95</v>
       </c>
@@ -13829,7 +14288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>95</v>
       </c>
@@ -13846,7 +14305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>95</v>
       </c>
@@ -13863,7 +14322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>95</v>
       </c>
@@ -13880,7 +14339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>95</v>
       </c>
@@ -13897,7 +14356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>95</v>
       </c>
@@ -13914,7 +14373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>95</v>
       </c>
@@ -13931,7 +14390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>95</v>
       </c>
@@ -13948,7 +14407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>95</v>
       </c>
@@ -13965,7 +14424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>95</v>
       </c>
@@ -13982,7 +14441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>95</v>
       </c>
@@ -13999,7 +14458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>95</v>
       </c>
@@ -14016,7 +14475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>95</v>
       </c>
@@ -14033,7 +14492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>95</v>
       </c>
@@ -14050,7 +14509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>95</v>
       </c>
@@ -14067,7 +14526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>95</v>
       </c>
@@ -14084,7 +14543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>95</v>
       </c>
@@ -14101,7 +14560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>95</v>
       </c>
@@ -14118,7 +14577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>95</v>
       </c>
@@ -14135,7 +14594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>95</v>
       </c>
@@ -14152,7 +14611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>95</v>
       </c>
@@ -14169,7 +14628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>95</v>
       </c>
@@ -14186,7 +14645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>95</v>
       </c>
@@ -14203,7 +14662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>95</v>
       </c>
@@ -14220,7 +14679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>95</v>
       </c>
@@ -14237,7 +14696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>95</v>
       </c>
@@ -14254,7 +14713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>95</v>
       </c>
@@ -14271,7 +14730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>95</v>
       </c>
@@ -14288,7 +14747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>95</v>
       </c>
@@ -14305,7 +14764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>95</v>
       </c>
@@ -14322,7 +14781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>95</v>
       </c>
@@ -14339,7 +14798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>95</v>
       </c>
@@ -14356,7 +14815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>95</v>
       </c>
@@ -14373,7 +14832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>95</v>
       </c>
@@ -14390,7 +14849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>95</v>
       </c>
@@ -14407,7 +14866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>95</v>
       </c>
@@ -14424,7 +14883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>95</v>
       </c>
@@ -14441,7 +14900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>95</v>
       </c>
@@ -14458,7 +14917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>95</v>
       </c>
@@ -14475,7 +14934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>95</v>
       </c>
@@ -14492,7 +14951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>95</v>
       </c>
@@ -14509,7 +14968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>95</v>
       </c>
@@ -14526,7 +14985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>95</v>
       </c>
@@ -14543,7 +15002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>95</v>
       </c>
@@ -14560,7 +15019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>95</v>
       </c>
@@ -14577,7 +15036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>95</v>
       </c>
@@ -14594,7 +15053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>95</v>
       </c>
@@ -14611,7 +15070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>95</v>
       </c>
@@ -14628,7 +15087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>95</v>
       </c>
@@ -14645,7 +15104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>95</v>
       </c>
@@ -14662,7 +15121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>95</v>
       </c>
@@ -14679,7 +15138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>95</v>
       </c>
@@ -14696,7 +15155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>95</v>
       </c>
@@ -14713,7 +15172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>95</v>
       </c>
@@ -14730,7 +15189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>95</v>
       </c>
@@ -14747,7 +15206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>95</v>
       </c>
@@ -14764,7 +15223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>95</v>
       </c>
@@ -14781,7 +15240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>95</v>
       </c>
@@ -14798,7 +15257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>95</v>
       </c>
@@ -14815,7 +15274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>95</v>
       </c>
@@ -14832,7 +15291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>95</v>
       </c>
@@ -14849,7 +15308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>95</v>
       </c>
@@ -14866,7 +15325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275">
         <v>95</v>
       </c>
@@ -14883,7 +15342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276">
         <v>95</v>
       </c>
@@ -14900,7 +15359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277">
         <v>95</v>
       </c>
@@ -14917,7 +15376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278">
         <v>95</v>
       </c>
@@ -14934,7 +15393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279">
         <v>95</v>
       </c>
@@ -14951,7 +15410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280">
         <v>95</v>
       </c>
@@ -14968,7 +15427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281">
         <v>95</v>
       </c>
@@ -14985,7 +15444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282">
         <v>95</v>
       </c>
@@ -15002,7 +15461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283">
         <v>95</v>
       </c>
@@ -15019,7 +15478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284">
         <v>95</v>
       </c>
@@ -15036,7 +15495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285">
         <v>95</v>
       </c>
@@ -15053,7 +15512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286">
         <v>95</v>
       </c>
@@ -15070,7 +15529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287">
         <v>95</v>
       </c>
@@ -15087,7 +15546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288">
         <v>95</v>
       </c>
@@ -15104,7 +15563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>95</v>
       </c>
@@ -15121,7 +15580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290">
         <v>95</v>
       </c>
@@ -15138,7 +15597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291">
         <v>95</v>
       </c>
@@ -15155,7 +15614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292">
         <v>95</v>
       </c>
@@ -15172,7 +15631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293">
         <v>95</v>
       </c>
@@ -15189,7 +15648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294">
         <v>95</v>
       </c>
@@ -15206,7 +15665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295">
         <v>95</v>
       </c>
@@ -15223,7 +15682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296">
         <v>95</v>
       </c>
@@ -15240,7 +15699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297">
         <v>95</v>
       </c>
@@ -15257,7 +15716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298">
         <v>95</v>
       </c>
@@ -15274,7 +15733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299">
         <v>95</v>
       </c>
@@ -15291,7 +15750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300">
         <v>95</v>
       </c>
@@ -15308,7 +15767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>95</v>
       </c>
@@ -15325,7 +15784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302">
         <v>95</v>
       </c>
@@ -15342,7 +15801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303">
         <v>95</v>
       </c>
@@ -15359,7 +15818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304">
         <v>95</v>
       </c>
@@ -15376,7 +15835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305">
         <v>95</v>
       </c>
@@ -15393,7 +15852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>95</v>
       </c>
@@ -15410,7 +15869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307">
         <v>95</v>
       </c>
@@ -15427,7 +15886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308">
         <v>95</v>
       </c>
@@ -15444,7 +15903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309">
         <v>95</v>
       </c>
@@ -15461,7 +15920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310">
         <v>95</v>
       </c>
@@ -15478,7 +15937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311">
         <v>95</v>
       </c>
@@ -15495,7 +15954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312">
         <v>95</v>
       </c>
@@ -15512,7 +15971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313">
         <v>95</v>
       </c>
@@ -15529,7 +15988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314">
         <v>95</v>
       </c>
@@ -15546,7 +16005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315">
         <v>95</v>
       </c>
@@ -15563,7 +16022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316">
         <v>95</v>
       </c>
@@ -15580,7 +16039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317">
         <v>95</v>
       </c>
@@ -15597,7 +16056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>95</v>
       </c>
@@ -15614,7 +16073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>95</v>
       </c>
@@ -15631,7 +16090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>95</v>
       </c>
@@ -15648,7 +16107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>95</v>
       </c>
@@ -15665,7 +16124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>95</v>
       </c>
@@ -15682,7 +16141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>95</v>
       </c>
@@ -15699,7 +16158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>95</v>
       </c>
@@ -15716,7 +16175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>95</v>
       </c>
@@ -15733,7 +16192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5">
       <c r="A326">
         <v>95</v>
       </c>
@@ -15750,7 +16209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5">
       <c r="A327">
         <v>95</v>
       </c>
@@ -15767,7 +16226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>95</v>
       </c>
@@ -15784,7 +16243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5">
       <c r="A329">
         <v>95</v>
       </c>
@@ -15801,7 +16260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5">
       <c r="A330">
         <v>95</v>
       </c>
@@ -15818,7 +16277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5">
       <c r="A331">
         <v>95</v>
       </c>
@@ -15835,7 +16294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5">
       <c r="A332">
         <v>95</v>
       </c>
@@ -15852,7 +16311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>95</v>
       </c>
@@ -15869,7 +16328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5">
       <c r="A334">
         <v>95</v>
       </c>
@@ -15886,7 +16345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>95</v>
       </c>
@@ -15903,7 +16362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5">
       <c r="A336">
         <v>95</v>
       </c>
@@ -15920,7 +16379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>95</v>
       </c>
@@ -15937,7 +16396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5">
       <c r="A338">
         <v>95</v>
       </c>
@@ -15954,7 +16413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>95</v>
       </c>
@@ -15971,7 +16430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>95</v>
       </c>
@@ -15988,7 +16447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>95</v>
       </c>
@@ -16005,7 +16464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>95</v>
       </c>
@@ -16022,7 +16481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>95</v>
       </c>
@@ -16039,7 +16498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>95</v>
       </c>
@@ -16056,7 +16515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>95</v>
       </c>
@@ -16073,7 +16532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>95</v>
       </c>
@@ -16090,7 +16549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>95</v>
       </c>
@@ -16107,7 +16566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>95</v>
       </c>
@@ -16124,7 +16583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>95</v>
       </c>
@@ -16141,7 +16600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>95</v>
       </c>
@@ -16158,7 +16617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>95</v>
       </c>
@@ -16175,7 +16634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>95</v>
       </c>
@@ -16192,7 +16651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>95</v>
       </c>
@@ -16209,7 +16668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5">
       <c r="A354">
         <v>95</v>
       </c>
@@ -16226,7 +16685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5">
       <c r="A355">
         <v>95</v>
       </c>
@@ -16243,7 +16702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5">
       <c r="A356">
         <v>95</v>
       </c>
@@ -16260,7 +16719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5">
       <c r="A357">
         <v>95</v>
       </c>
@@ -16277,7 +16736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5">
       <c r="A358">
         <v>95</v>
       </c>
@@ -16294,7 +16753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5">
       <c r="A359">
         <v>95</v>
       </c>
@@ -16311,7 +16770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>95</v>
       </c>
@@ -16328,7 +16787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5">
       <c r="A361">
         <v>95</v>
       </c>
@@ -16345,7 +16804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5">
       <c r="A362">
         <v>95</v>
       </c>
@@ -16362,7 +16821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>95</v>
       </c>
@@ -16379,7 +16838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>95</v>
       </c>
@@ -16396,7 +16855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>95</v>
       </c>
@@ -16413,7 +16872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>95</v>
       </c>
@@ -16441,7 +16900,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16453,7 +16912,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
